--- a/MGA Window Quotaion/Data/Somesh Bagadiya_QuatationData.xlsx
+++ b/MGA Window Quotaion/Data/Somesh Bagadiya_QuatationData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="183">
   <si>
     <t>Sr.No</t>
   </si>
@@ -106,6 +106,9 @@
     <t>totSqftEntVar</t>
   </si>
   <si>
+    <t>totSqftEntQuantVar</t>
+  </si>
+  <si>
     <t>cstAmtInr</t>
   </si>
   <si>
@@ -163,55 +166,403 @@
     <t>installationFlag</t>
   </si>
   <si>
-    <t>11 ft</t>
+    <t>hsnSacVar</t>
+  </si>
+  <si>
+    <t>dateAndTime</t>
+  </si>
+  <si>
+    <t>quotaionNumber</t>
+  </si>
+  <si>
+    <t>invoiceNumber</t>
+  </si>
+  <si>
+    <t>modeTerms</t>
+  </si>
+  <si>
+    <t>termsOfDel</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>custGstNumb</t>
+  </si>
+  <si>
+    <t>custPanNumb</t>
   </si>
   <si>
     <t>15 ft</t>
   </si>
   <si>
+    <t>10 ft</t>
+  </si>
+  <si>
+    <t>5 ft</t>
+  </si>
+  <si>
+    <t>12 ft</t>
+  </si>
+  <si>
+    <t>7 ft</t>
+  </si>
+  <si>
+    <t>50 ft</t>
+  </si>
+  <si>
+    <t>8 ft</t>
+  </si>
+  <si>
+    <t>9 ft</t>
+  </si>
+  <si>
+    <t>12.5 ft</t>
+  </si>
+  <si>
+    <t>8.6 ft</t>
+  </si>
+  <si>
+    <t>09 ft</t>
+  </si>
+  <si>
+    <t>9.5 ft</t>
+  </si>
+  <si>
+    <t>13.7 ft</t>
+  </si>
+  <si>
+    <t>09.6 ft</t>
+  </si>
+  <si>
     <t>Sliding Window</t>
   </si>
   <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>₹82,500.00</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>Sliding Door</t>
+  </si>
+  <si>
+    <t>Fix Louver</t>
+  </si>
+  <si>
+    <t>Patti Louver</t>
+  </si>
+  <si>
+    <t>Openable Window</t>
+  </si>
+  <si>
+    <t>Sliding folding door</t>
+  </si>
+  <si>
+    <t>Casement Window</t>
+  </si>
+  <si>
+    <t>Aluminium partition</t>
+  </si>
+  <si>
+    <t>Toughened partition</t>
+  </si>
+  <si>
+    <t>Toughened Door</t>
+  </si>
+  <si>
+    <t>Composite pannel</t>
+  </si>
+  <si>
+    <t>Curtain wall</t>
+  </si>
+  <si>
+    <t>Fix Window</t>
+  </si>
+  <si>
+    <t>Exhaust Fan Window</t>
+  </si>
+  <si>
+    <t>4 Track</t>
+  </si>
+  <si>
+    <t>3 Track</t>
+  </si>
+  <si>
+    <t>Regular Section</t>
+  </si>
+  <si>
+    <t>Domal Section</t>
+  </si>
+  <si>
+    <t>UPVC Section</t>
+  </si>
+  <si>
+    <t>Profile Aluminium Section</t>
+  </si>
+  <si>
+    <t>8mm</t>
+  </si>
+  <si>
+    <t>4mm</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>Frosted</t>
+  </si>
+  <si>
+    <t>Tinted</t>
+  </si>
+  <si>
+    <t>One-way</t>
+  </si>
+  <si>
+    <t>Bajra</t>
+  </si>
+  <si>
+    <t>Domal full metal body</t>
+  </si>
+  <si>
+    <t>1 inch</t>
+  </si>
+  <si>
+    <t>Domal teflon bearing</t>
+  </si>
+  <si>
+    <t>3/4th inch</t>
+  </si>
+  <si>
+    <t>PowderJumbo</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Jumbo</t>
+  </si>
+  <si>
+    <t>Fiber Net</t>
+  </si>
+  <si>
+    <t>4ft bundle</t>
+  </si>
+  <si>
+    <t>14 x 14 Aluminium net</t>
+  </si>
+  <si>
+    <t>5ft bundle</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>S Type</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Hardware Toughened</t>
+  </si>
+  <si>
+    <t>Hardware Exhaust</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>₹75,000.00</t>
+  </si>
+  <si>
+    <t>₹60,000.00</t>
+  </si>
+  <si>
+    <t>₹12,500.00</t>
+  </si>
+  <si>
+    <t>₹13,750.00</t>
+  </si>
+  <si>
+    <t>₹72,000.00</t>
+  </si>
+  <si>
+    <t>₹26,950.00</t>
+  </si>
+  <si>
+    <t>₹2,62,500.00</t>
+  </si>
+  <si>
+    <t>₹38,400.00</t>
+  </si>
+  <si>
+    <t>₹50,000.00</t>
+  </si>
+  <si>
+    <t>₹42,707.25</t>
+  </si>
+  <si>
+    <t>₹89,135.62</t>
+  </si>
+  <si>
+    <t>₹33,318.98</t>
+  </si>
+  <si>
+    <t>₹43,200.00</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>₹4,12,500.00</t>
-  </si>
-  <si>
-    <t>₹4,12,489.00</t>
-  </si>
-  <si>
-    <t>₹4,86,848.02</t>
-  </si>
-  <si>
-    <t>₹4,86,737.02</t>
+    <t>₹1,35,000.00</t>
+  </si>
+  <si>
+    <t>₹1,47,500.00</t>
+  </si>
+  <si>
+    <t>₹1,61,250.00</t>
+  </si>
+  <si>
+    <t>₹2,21,250.00</t>
+  </si>
+  <si>
+    <t>₹2,93,250.00</t>
+  </si>
+  <si>
+    <t>₹3,20,200.00</t>
+  </si>
+  <si>
+    <t>₹5,82,700.00</t>
+  </si>
+  <si>
+    <t>₹6,21,100.00</t>
+  </si>
+  <si>
+    <t>₹6,71,100.00</t>
+  </si>
+  <si>
+    <t>₹7,13,807.25</t>
+  </si>
+  <si>
+    <t>₹8,02,942.88</t>
+  </si>
+  <si>
+    <t>₹68,06,103.93</t>
+  </si>
+  <si>
+    <t>₹80,31,202.64</t>
   </si>
   <si>
     <t>Somesh Bagadiya</t>
   </si>
   <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address	</t>
-  </si>
-  <si>
-    <t>True Flag</t>
+    <t>Orange City, Aurangabad</t>
+  </si>
+  <si>
+    <t>₹1,50,000.00</t>
+  </si>
+  <si>
+    <t>₹1,20,000.00</t>
+  </si>
+  <si>
+    <t>₹37,500.00</t>
+  </si>
+  <si>
+    <t>₹55,000.00</t>
+  </si>
+  <si>
+    <t>₹3,00,000.00</t>
+  </si>
+  <si>
+    <t>₹4,32,000.00</t>
+  </si>
+  <si>
+    <t>₹1,88,650.00</t>
+  </si>
+  <si>
+    <t>₹21,00,000.00</t>
+  </si>
+  <si>
+    <t>₹3,45,600.00</t>
+  </si>
+  <si>
+    <t>₹5,00,000.00</t>
+  </si>
+  <si>
+    <t>₹4,69,779.75</t>
+  </si>
+  <si>
+    <t>₹10,69,627.44</t>
+  </si>
+  <si>
+    <t>₹4,33,146.74</t>
+  </si>
+  <si>
+    <t>₹6,04,800.00</t>
+  </si>
+  <si>
+    <t>False Flag</t>
+  </si>
+  <si>
+    <t>qwe1</t>
+  </si>
+  <si>
+    <t>qwe2</t>
+  </si>
+  <si>
+    <t>qwe3</t>
+  </si>
+  <si>
+    <t>qwe4</t>
+  </si>
+  <si>
+    <t>qwe5</t>
+  </si>
+  <si>
+    <t>qwe6</t>
+  </si>
+  <si>
+    <t>qwe7</t>
+  </si>
+  <si>
+    <t>qwe8</t>
+  </si>
+  <si>
+    <t>qwe9</t>
+  </si>
+  <si>
+    <t>qwe10</t>
+  </si>
+  <si>
+    <t>qwe11</t>
+  </si>
+  <si>
+    <t>qwe12</t>
+  </si>
+  <si>
+    <t>qwe13</t>
+  </si>
+  <si>
+    <t>qwe14</t>
+  </si>
+  <si>
+    <t>2022-04-07 18:23:45</t>
+  </si>
+  <si>
+    <t>Som/74-2022/659</t>
   </si>
 </sst>
 </file>
@@ -569,13 +920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:BG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,97 +1074,1503 @@
       <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:59">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>150</v>
+      </c>
+      <c r="AE2">
+        <v>300</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG2">
+        <v>500</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ2">
+        <v>8421809460</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS2">
+        <v>75000</v>
+      </c>
+      <c r="AT2">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>120</v>
+      </c>
+      <c r="AE3">
+        <v>240</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3">
+        <v>500</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ3">
+        <v>8421809460</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS3">
+        <v>135000</v>
+      </c>
+      <c r="AT3">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>25</v>
+      </c>
+      <c r="AE4">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG4">
+        <v>500</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ4">
+        <v>8421809460</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS4">
+        <v>147500</v>
+      </c>
+      <c r="AT4">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>25</v>
+      </c>
+      <c r="AE5">
+        <v>100</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG5">
+        <v>550</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ5">
+        <v>8421809460</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS5">
+        <v>161250</v>
+      </c>
+      <c r="AT5">
+        <v>4</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD6">
+        <v>120</v>
+      </c>
+      <c r="AE6">
+        <v>600</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG6">
+        <v>500</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ6">
+        <v>8421809460</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS6">
+        <v>221250</v>
+      </c>
+      <c r="AT6">
+        <v>5</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD7">
+        <v>144</v>
+      </c>
+      <c r="AE7">
+        <v>864</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG7">
+        <v>500</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ7">
+        <v>8421809460</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS7">
+        <v>293250</v>
+      </c>
+      <c r="AT7">
+        <v>6</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD8">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AE8">
+        <v>343</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG8">
+        <v>550</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ8">
+        <v>8421809460</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS8">
+        <v>320200</v>
+      </c>
+      <c r="AT8">
+        <v>7</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD9">
+        <v>750</v>
+      </c>
+      <c r="AE9">
+        <v>6000</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG9">
+        <v>350</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ9">
+        <v>8421809460</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS9">
+        <v>582700</v>
+      </c>
+      <c r="AT9">
+        <v>8</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD10">
+        <v>64</v>
+      </c>
+      <c r="AE10">
+        <v>576</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG10">
+        <v>600</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ10">
+        <v>8421809460</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS10">
+        <v>621100</v>
+      </c>
+      <c r="AT10">
+        <v>9</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR2">
-        <v>82500</v>
-      </c>
-      <c r="AS2">
-        <v>5</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>65</v>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD11">
+        <v>100</v>
+      </c>
+      <c r="AE11">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG11">
+        <v>500</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ11">
+        <v>8421809460</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS11">
+        <v>671100</v>
+      </c>
+      <c r="AT11">
+        <v>10</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD12">
+        <v>85.5</v>
+      </c>
+      <c r="AE12">
+        <v>940.5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG12">
+        <v>499.5</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ12">
+        <v>8421809460</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS12">
+        <v>713807.25</v>
+      </c>
+      <c r="AT12">
+        <v>11</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD13">
+        <v>171.25</v>
+      </c>
+      <c r="AE13">
+        <v>2055</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG13">
+        <v>520.5</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ13">
+        <v>8421809460</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS13">
+        <v>802942.875</v>
+      </c>
+      <c r="AT13">
+        <v>12</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>73.95999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>961.4799999999999</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG14">
+        <v>450.5</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ14">
+        <v>8421809460</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS14">
+        <v>836261.855</v>
+      </c>
+      <c r="AT14">
+        <v>13</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD15">
+        <v>86.39999999999999</v>
+      </c>
+      <c r="AE15">
+        <v>1209.6</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG15">
+        <v>500</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ15">
+        <v>8421809460</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS15">
+        <v>879461.855</v>
+      </c>
+      <c r="AT15">
+        <v>14</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
